--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value268.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value268.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6043293015138642</v>
+        <v>1.636063098907471</v>
       </c>
       <c r="B1">
-        <v>0.8299599759802955</v>
+        <v>1.972866654396057</v>
       </c>
       <c r="C1">
-        <v>1.43051355083555</v>
+        <v>2.120338201522827</v>
       </c>
       <c r="D1">
-        <v>3.224590270956171</v>
+        <v>2.443690061569214</v>
       </c>
       <c r="E1">
-        <v>2.596205006225197</v>
+        <v>3.240051746368408</v>
       </c>
     </row>
   </sheetData>
